--- a/data/s4/Kanaleneiland/archetypes/stats_trans.xlsx
+++ b/data/s4/Kanaleneiland/archetypes/stats_trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s4\Annelinn\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s4\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC84FAE-8978-46F3-8BD9-96BE1389289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAE6D65-3384-4B9B-9622-BCA1A24857CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,10 +467,10 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="D2">
-        <v>0.2475</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -487,10 +487,10 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.75249999999999995</v>
+        <v>0.03</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -507,10 +507,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="D4">
-        <v>0.2475</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.75249999999999995</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="D6">
-        <v>0.2475</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -567,10 +567,10 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.75249999999999995</v>
+        <v>0.03</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="D8">
-        <v>0.2475</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -607,10 +607,10 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.75249999999999995</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.72</v>
       </c>
       <c r="D10">
-        <v>0.2475</v>
+        <v>0.12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.75249999999999995</v>
+        <v>0.04</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D12">
-        <v>0.2475</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.75249999999999995</v>
+        <v>0.03</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.83</v>
       </c>
       <c r="D14">
-        <v>0.2475</v>
+        <v>0.12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.75249999999999995</v>
+        <v>0.04</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D16">
-        <v>0.2475</v>
+        <v>0.11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -767,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.75249999999999995</v>
+        <v>0.05</v>
       </c>
       <c r="E17">
         <v>0</v>

--- a/data/s4/Kanaleneiland/archetypes/stats_trans.xlsx
+++ b/data/s4/Kanaleneiland/archetypes/stats_trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s4\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAE6D65-3384-4B9B-9622-BCA1A24857CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B965DD1-A1D4-4157-8757-42EDAF6EB46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
         <v>0.03</v>
@@ -527,7 +527,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
         <v>0.03</v>
@@ -567,7 +567,7 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
         <v>0.03</v>
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
         <v>0.03</v>
@@ -647,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
         <v>0.04</v>
@@ -687,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
         <v>0.03</v>
@@ -727,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D15">
         <v>0.04</v>
@@ -767,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D17">
         <v>0.05</v>
